--- a/data/Political Ideology/political_ideology.xlsx
+++ b/data/Political Ideology/political_ideology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanropovik/Library/Mobile Documents/com~apple~CloudDocs/MANUSCRIPTS/ongoing/2021 Forecasting Collaborative project/forecastingCollaborativeAnalysis/data/Political Ideology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802749C-54F2-9F45-8024-754812EC7AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD3D960-A2DF-8341-808C-D6571A2FE102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2338,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A23:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B87" sqref="B87:M87"/>
     </sheetView>
   </sheetViews>
